--- a/CS-4390.0U2-Networks/Grades/Grades.xlsx
+++ b/CS-4390.0U2-Networks/Grades/Grades.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Screen-Cleaner\GitHub\UTDSummer2018\CS-4390.0U2-Networks\Grades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kim\Desktop\Screen-Cleaner\GitHub\UTDSummer2018\CS-4390.0U2-Networks\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18EBC870-0B8A-4030-BF58-600AE10E4FD2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="28755" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2430" windowWidth="28755" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -60,7 +59,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -99,12 +98,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC9900"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -230,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -238,15 +249,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -263,25 +265,55 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -290,6 +322,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC9900"/>
+      <color rgb="FFFFEB9C"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -377,23 +415,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -429,23 +450,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -621,11 +625,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,29 +640,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="2"/>
@@ -669,25 +673,25 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="13">
         <v>0</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="13">
         <v>0.2</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="14">
         <v>0.15</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="15">
         <v>0</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="15">
         <v>0.4</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="15">
         <v>0.25</v>
       </c>
       <c r="I5" s="2"/>
@@ -701,67 +705,67 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="14">
-        <f t="shared" ref="C6:H6" si="0">IF(C7&lt;&gt;0,IF(C5&lt;&gt;0,(SUM(C8:C17)/C7)*C5,0), 0)</f>
+      <c r="C6" s="10">
+        <f t="shared" ref="C6:G6" si="0">IF(C7&lt;&gt;0,IF(C5&lt;&gt;0,(SUM(C8:C17)/C7)*C5,0), 0)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="10">
         <f t="shared" si="0"/>
         <v>0.16900000000000001</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="8">
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="7">
         <f t="shared" si="0"/>
-        <v>0.26</v>
-      </c>
-      <c r="H6" s="10">
-        <f t="shared" si="0"/>
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="H6" s="7">
+        <f>IF(H7&lt;&gt;0,IF(H5&lt;&gt;0,(SUM(H8:H17)/H7)*H5,0), 0)</f>
         <v>0.22500000000000001</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2">
         <f>SUM(C6:H6)</f>
-        <v>0.80399999999999994</v>
+        <v>0.82399999999999995</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="5">
         <f t="shared" ref="C7:D7" si="1">COUNT(C8:C17)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="5">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="6">
         <f t="shared" ref="E7" si="2">COUNT(E8:E17)</f>
         <v>1</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="6">
         <f t="shared" ref="F7" si="3">COUNT(F8:F17)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="6">
         <f t="shared" ref="G7" si="4">COUNT(G8:G17)</f>
         <v>2</v>
       </c>
-      <c r="H7" s="9">
-        <f t="shared" ref="H7" si="5">COUNT(H8:H17)</f>
+      <c r="H7" s="6">
+        <f>COUNT(H8:H17)</f>
         <v>1</v>
       </c>
       <c r="I7" s="2"/>
@@ -770,21 +774,21 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="7">
+      <c r="B8" s="4">
         <v>1</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="17">
         <v>0.69</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="18">
         <v>1</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="18">
+      <c r="F8" s="18"/>
+      <c r="G8" s="19">
         <v>0.5</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="18">
         <v>0.9</v>
       </c>
       <c r="I8" s="2"/>
@@ -793,139 +797,139 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="7">
+      <c r="B9" s="4">
         <v>2</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="7">
+      <c r="C9" s="20"/>
+      <c r="D9" s="21">
         <v>1</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="H9" s="5"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22">
+        <v>0.9</v>
+      </c>
+      <c r="H9" s="22"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="7">
+      <c r="B10" s="4">
         <v>3</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="7">
+      <c r="B11" s="4">
         <v>4</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="7">
+      <c r="B12" s="4">
         <v>5</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="7">
+      <c r="B13" s="4">
         <v>6</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="7">
+      <c r="B14" s="4">
         <v>7</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="7">
+      <c r="B15" s="4">
         <v>8</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="7">
+      <c r="B16" s="4">
         <v>9</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
+      <c r="L16" s="11"/>
     </row>
     <row r="17" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="6">
+      <c r="B17" s="3">
         <v>10</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -964,7 +968,7 @@
       <c r="L20" s="2"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="13"/>
+      <c r="B22" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -976,7 +980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -988,7 +992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/CS-4390.0U2-Networks/Grades/Grades.xlsx
+++ b/CS-4390.0U2-Networks/Grades/Grades.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2430" windowWidth="28755" windowHeight="12840"/>
+    <workbookView xWindow="0" yWindow="3030" windowWidth="28755" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -629,7 +629,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,7 +726,7 @@
       </c>
       <c r="G6" s="7">
         <f t="shared" si="0"/>
-        <v>0.27999999999999997</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="H6" s="7">
         <f>IF(H7&lt;&gt;0,IF(H5&lt;&gt;0,(SUM(H8:H17)/H7)*H5,0), 0)</f>
@@ -735,7 +735,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2">
         <f>SUM(C6:H6)</f>
-        <v>0.82399999999999995</v>
+        <v>0.83199999999999996</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -786,7 +786,7 @@
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="19">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="H8" s="18">
         <v>0.9</v>
